--- a/data/pca/factorExposure/factorExposure_2012-12-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-12-31.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0006535803856923802</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001796214836432317</v>
+      </c>
+      <c r="C2">
+        <v>-0.03190983107854931</v>
+      </c>
+      <c r="D2">
+        <v>0.005408184137345804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0004738391455801684</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006396090280418487</v>
+      </c>
+      <c r="C4">
+        <v>-0.08413750971657301</v>
+      </c>
+      <c r="D4">
+        <v>0.07916447943494062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0001488207123618301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01440801342368402</v>
+      </c>
+      <c r="C6">
+        <v>-0.1141288997398918</v>
+      </c>
+      <c r="D6">
+        <v>0.03222777753889079</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001734965911947413</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005129653847981839</v>
+      </c>
+      <c r="C7">
+        <v>-0.05807299714577913</v>
+      </c>
+      <c r="D7">
+        <v>0.03096321262010666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0006234980457358248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005914211931280485</v>
+      </c>
+      <c r="C8">
+        <v>-0.03863585217687183</v>
+      </c>
+      <c r="D8">
+        <v>0.03997791611893288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003182768588857792</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.00458726735800134</v>
+      </c>
+      <c r="C9">
+        <v>-0.07058765396759903</v>
+      </c>
+      <c r="D9">
+        <v>0.07299648749543204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002462073819349877</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005395617184972227</v>
+      </c>
+      <c r="C10">
+        <v>-0.05797560158243684</v>
+      </c>
+      <c r="D10">
+        <v>-0.1984211128219804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002495060062424555</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005816299067870552</v>
+      </c>
+      <c r="C11">
+        <v>-0.07939341264964855</v>
+      </c>
+      <c r="D11">
+        <v>0.06070161170137234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004793334764701076</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004162591429610792</v>
+      </c>
+      <c r="C12">
+        <v>-0.06396085666237367</v>
+      </c>
+      <c r="D12">
+        <v>0.04688233106821327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002420291979909784</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.009039241871892372</v>
+      </c>
+      <c r="C13">
+        <v>-0.06820304741895605</v>
+      </c>
+      <c r="D13">
+        <v>0.05804716179268359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0007859640924011722</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001608151132366293</v>
+      </c>
+      <c r="C14">
+        <v>-0.04525072372334506</v>
+      </c>
+      <c r="D14">
+        <v>0.004022561920146131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0006685707189081446</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.006069929655417792</v>
+      </c>
+      <c r="C15">
+        <v>-0.04194017028663633</v>
+      </c>
+      <c r="D15">
+        <v>0.02816453270926237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0008066400969572836</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005162555598583997</v>
+      </c>
+      <c r="C16">
+        <v>-0.06507448347710854</v>
+      </c>
+      <c r="D16">
+        <v>0.04868318869684479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001367905023341756</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.0090789701595561</v>
+      </c>
+      <c r="C20">
+        <v>-0.06559585966601084</v>
+      </c>
+      <c r="D20">
+        <v>0.04197123941813017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005947123997498245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.01008160504578647</v>
+      </c>
+      <c r="C21">
+        <v>-0.02171787564182296</v>
+      </c>
+      <c r="D21">
+        <v>0.03630623314415255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01641852276190678</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006600857565148016</v>
+      </c>
+      <c r="C22">
+        <v>-0.09402656603388918</v>
+      </c>
+      <c r="D22">
+        <v>0.108349928782428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01671919362896648</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006417053831800888</v>
+      </c>
+      <c r="C23">
+        <v>-0.0948357477499691</v>
+      </c>
+      <c r="D23">
+        <v>0.1083927536340257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001340459341534809</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.00561741754415626</v>
+      </c>
+      <c r="C24">
+        <v>-0.07645565031031745</v>
+      </c>
+      <c r="D24">
+        <v>0.06359797276936588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003909532644537321</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003157630925555424</v>
+      </c>
+      <c r="C25">
+        <v>-0.07859553978275029</v>
+      </c>
+      <c r="D25">
+        <v>0.06698384562309583</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004595454847194709</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003695007128414404</v>
+      </c>
+      <c r="C26">
+        <v>-0.04071123919029433</v>
+      </c>
+      <c r="D26">
+        <v>0.02357130567624723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004865622733374778</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0007174987323511688</v>
+      </c>
+      <c r="C28">
+        <v>-0.1075528065712992</v>
+      </c>
+      <c r="D28">
+        <v>-0.3170644414482904</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001116945687159879</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003377433448460746</v>
+      </c>
+      <c r="C29">
+        <v>-0.05024588033081782</v>
+      </c>
+      <c r="D29">
+        <v>0.007852938920926806</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003432092356835027</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009716508094150419</v>
+      </c>
+      <c r="C30">
+        <v>-0.1426867218595801</v>
+      </c>
+      <c r="D30">
+        <v>0.09374701295997299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001136197492024255</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006350711846455083</v>
+      </c>
+      <c r="C31">
+        <v>-0.04473934409549505</v>
+      </c>
+      <c r="D31">
+        <v>0.03112222731351427</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.000512906201649341</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004240588392178338</v>
+      </c>
+      <c r="C32">
+        <v>-0.04041859814504566</v>
+      </c>
+      <c r="D32">
+        <v>0.01913117564053494</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002806640500385474</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008636904489573083</v>
+      </c>
+      <c r="C33">
+        <v>-0.08674912652734813</v>
+      </c>
+      <c r="D33">
+        <v>0.06602733923136452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.0043752209089284</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.00407300936749653</v>
+      </c>
+      <c r="C34">
+        <v>-0.0580506638268249</v>
+      </c>
+      <c r="D34">
+        <v>0.05437598814158846</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001479575815450757</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005082907837149395</v>
+      </c>
+      <c r="C35">
+        <v>-0.0406143059449315</v>
+      </c>
+      <c r="D35">
+        <v>0.01624129887474916</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003718513353992575</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.00107700260379264</v>
+      </c>
+      <c r="C36">
+        <v>-0.02448458292778027</v>
+      </c>
+      <c r="D36">
+        <v>0.02111553921749451</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002427819422932356</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009531484199521056</v>
+      </c>
+      <c r="C38">
+        <v>-0.03472991230578787</v>
+      </c>
+      <c r="D38">
+        <v>0.01384278248443575</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01160623692904312</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0003670208628498507</v>
+      </c>
+      <c r="C39">
+        <v>-0.1158013899269053</v>
+      </c>
+      <c r="D39">
+        <v>0.07315260275393362</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009537787142730248</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002836170664951096</v>
+      </c>
+      <c r="C40">
+        <v>-0.09041495574242139</v>
+      </c>
+      <c r="D40">
+        <v>0.01066249404985971</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>8.215013024505348e-06</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007300648674092432</v>
+      </c>
+      <c r="C41">
+        <v>-0.03805901205198681</v>
+      </c>
+      <c r="D41">
+        <v>0.03557100870808339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002823109301051454</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.004166359832204095</v>
+      </c>
+      <c r="C43">
+        <v>-0.05380176623336046</v>
+      </c>
+      <c r="D43">
+        <v>0.02443151429166362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004324356862122883</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003583994415041538</v>
+      </c>
+      <c r="C44">
+        <v>-0.1101743352863417</v>
+      </c>
+      <c r="D44">
+        <v>0.06504410507249789</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0009304390657850697</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002313494346716935</v>
+      </c>
+      <c r="C46">
+        <v>-0.03345370700187561</v>
+      </c>
+      <c r="D46">
+        <v>0.03427543400325161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0004066702143305488</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.0027905610792704</v>
+      </c>
+      <c r="C47">
+        <v>-0.03749184500159132</v>
+      </c>
+      <c r="D47">
+        <v>0.02206125488495934</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003752798659806924</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006720076858671413</v>
+      </c>
+      <c r="C48">
+        <v>-0.03066261101723363</v>
+      </c>
+      <c r="D48">
+        <v>0.03263836770157865</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01187877099495185</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.0157765354385427</v>
+      </c>
+      <c r="C49">
+        <v>-0.1851959677559802</v>
+      </c>
+      <c r="D49">
+        <v>0.01719628145439227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001745116926203465</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003719634899273314</v>
+      </c>
+      <c r="C50">
+        <v>-0.04341786887430844</v>
+      </c>
+      <c r="D50">
+        <v>0.03668106040965332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0009947663926357648</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004472227785075682</v>
+      </c>
+      <c r="C51">
+        <v>-0.02572855329637329</v>
+      </c>
+      <c r="D51">
+        <v>0.02035799493537089</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008011221409449874</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02123781688932443</v>
+      </c>
+      <c r="C53">
+        <v>-0.169645727229315</v>
+      </c>
+      <c r="D53">
+        <v>0.02700696768523828</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001244098744881657</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008854702772128289</v>
+      </c>
+      <c r="C54">
+        <v>-0.05418778476171193</v>
+      </c>
+      <c r="D54">
+        <v>0.04391156866339442</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003542049258602126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009741775525017028</v>
+      </c>
+      <c r="C55">
+        <v>-0.1084928762902036</v>
+      </c>
+      <c r="D55">
+        <v>0.04056114890913035</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002795965064784265</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02036325605163465</v>
+      </c>
+      <c r="C56">
+        <v>-0.1735192970591304</v>
+      </c>
+      <c r="D56">
+        <v>0.02317489762615589</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.006992383428491711</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01987475119038234</v>
+      </c>
+      <c r="C58">
+        <v>-0.1121819143085882</v>
+      </c>
+      <c r="D58">
+        <v>0.0455819738665285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006632685436508776</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01008017862344439</v>
+      </c>
+      <c r="C59">
+        <v>-0.1649281788165994</v>
+      </c>
+      <c r="D59">
+        <v>-0.3235001657324021</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003753235704260422</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02444189506472478</v>
+      </c>
+      <c r="C60">
+        <v>-0.2222023019261899</v>
+      </c>
+      <c r="D60">
+        <v>0.03319690126246815</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01370398129372755</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001563134145444038</v>
+      </c>
+      <c r="C61">
+        <v>-0.09524139668530864</v>
+      </c>
+      <c r="D61">
+        <v>0.05453623645094705</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1631878711188365</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1450524053887911</v>
+      </c>
+      <c r="C62">
+        <v>-0.09200329303171265</v>
+      </c>
+      <c r="D62">
+        <v>0.04324415764862908</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0004906002512661931</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006424939697239386</v>
+      </c>
+      <c r="C63">
+        <v>-0.05512878226785851</v>
+      </c>
+      <c r="D63">
+        <v>0.02809917069419445</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0008015137334698102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01548014476153855</v>
+      </c>
+      <c r="C64">
+        <v>-0.1045388391668261</v>
+      </c>
+      <c r="D64">
+        <v>0.0588888047483833</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002694152788192752</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01831495664351081</v>
+      </c>
+      <c r="C65">
+        <v>-0.1250782151190102</v>
+      </c>
+      <c r="D65">
+        <v>0.0194949059376124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007687507625320586</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01334907795684182</v>
+      </c>
+      <c r="C66">
+        <v>-0.1599132563921678</v>
+      </c>
+      <c r="D66">
+        <v>0.1114012152098096</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003660623239610468</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01575083320856611</v>
+      </c>
+      <c r="C67">
+        <v>-0.06560459491812076</v>
+      </c>
+      <c r="D67">
+        <v>0.02550266368043288</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006032103571710623</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.000810975725553658</v>
+      </c>
+      <c r="C68">
+        <v>-0.0873891215550639</v>
+      </c>
+      <c r="D68">
+        <v>-0.2605864439503864</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002121026293378936</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006319703793004185</v>
+      </c>
+      <c r="C69">
+        <v>-0.05053481960351393</v>
+      </c>
+      <c r="D69">
+        <v>0.04040497475611335</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0002151844844889345</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001841089955405076</v>
+      </c>
+      <c r="C70">
+        <v>-0.002574083643244478</v>
+      </c>
+      <c r="D70">
+        <v>0.001344347054268849</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>4.087004779002436e-05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005921841429930947</v>
+      </c>
+      <c r="C71">
+        <v>-0.09505558902345386</v>
+      </c>
+      <c r="D71">
+        <v>-0.3066828818620148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003950328306865148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01649341248155551</v>
+      </c>
+      <c r="C72">
+        <v>-0.1537050324539846</v>
+      </c>
+      <c r="D72">
+        <v>0.02203235467344895</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01219163839486568</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03136828322159537</v>
+      </c>
+      <c r="C73">
+        <v>-0.2802438512763854</v>
+      </c>
+      <c r="D73">
+        <v>0.05515112134655112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004484480357359014</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002163476790250645</v>
+      </c>
+      <c r="C74">
+        <v>-0.1046698795981816</v>
+      </c>
+      <c r="D74">
+        <v>0.03566611473758505</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002523072075774975</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01120122071839247</v>
+      </c>
+      <c r="C75">
+        <v>-0.1247494171183538</v>
+      </c>
+      <c r="D75">
+        <v>0.02311833818602193</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.008877451871006454</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02205959206039855</v>
+      </c>
+      <c r="C76">
+        <v>-0.1485039005002833</v>
+      </c>
+      <c r="D76">
+        <v>0.05893490186714074</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001515035998528317</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02370068299166665</v>
+      </c>
+      <c r="C77">
+        <v>-0.1223172265864146</v>
+      </c>
+      <c r="D77">
+        <v>0.09051610152644954</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0003383822838672883</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01491706432523715</v>
+      </c>
+      <c r="C78">
+        <v>-0.09543449993554338</v>
+      </c>
+      <c r="D78">
+        <v>0.07113317479287441</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02352018363567452</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03797706053350936</v>
+      </c>
+      <c r="C79">
+        <v>-0.1566582022403628</v>
+      </c>
+      <c r="D79">
+        <v>0.03180724744505514</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006870521166028901</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01046062573497428</v>
+      </c>
+      <c r="C80">
+        <v>-0.04015327377803964</v>
+      </c>
+      <c r="D80">
+        <v>0.02798476320613347</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0008245950702703072</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01557335145116863</v>
+      </c>
+      <c r="C81">
+        <v>-0.1273649148576429</v>
+      </c>
+      <c r="D81">
+        <v>0.03910279592990685</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005815834415620498</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02008929744391593</v>
+      </c>
+      <c r="C82">
+        <v>-0.1411599227198238</v>
+      </c>
+      <c r="D82">
+        <v>0.03636279526841574</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009412755097668628</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01008337260095943</v>
+      </c>
+      <c r="C83">
+        <v>-0.05620812179238441</v>
+      </c>
+      <c r="D83">
+        <v>0.05081452811963399</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01314088160609528</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01174873976669497</v>
+      </c>
+      <c r="C84">
+        <v>-0.03810299987768518</v>
+      </c>
+      <c r="D84">
+        <v>-0.01047418653076057</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01406309513186114</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02849769240318684</v>
+      </c>
+      <c r="C85">
+        <v>-0.1241973315188847</v>
+      </c>
+      <c r="D85">
+        <v>0.04623754748378943</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001320515113650051</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.00599909054258541</v>
+      </c>
+      <c r="C86">
+        <v>-0.05013919801661003</v>
+      </c>
+      <c r="D86">
+        <v>0.02997539335282686</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.00411107791591009</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01037817123873014</v>
+      </c>
+      <c r="C87">
+        <v>-0.1291024495177308</v>
+      </c>
+      <c r="D87">
+        <v>0.074929568224884</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01152162864508205</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002844913197319308</v>
+      </c>
+      <c r="C88">
+        <v>-0.06477088944840714</v>
+      </c>
+      <c r="D88">
+        <v>0.01764243574901023</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01378942781067385</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.00104632651495126</v>
+      </c>
+      <c r="C89">
+        <v>-0.147413588789566</v>
+      </c>
+      <c r="D89">
+        <v>-0.3400855596309188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.0006586925019884734</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007209340774700325</v>
+      </c>
+      <c r="C90">
+        <v>-0.1211691206248918</v>
+      </c>
+      <c r="D90">
+        <v>-0.3195660999775435</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0008396666485828702</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01058217272714225</v>
+      </c>
+      <c r="C91">
+        <v>-0.1002949944439812</v>
+      </c>
+      <c r="D91">
+        <v>0.02143546906106022</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.00738650792037991</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.001146461544991533</v>
+      </c>
+      <c r="C92">
+        <v>-0.1345095946442697</v>
+      </c>
+      <c r="D92">
+        <v>-0.3264931047061896</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0001139840915263409</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005099783266822005</v>
+      </c>
+      <c r="C93">
+        <v>-0.1051662371309948</v>
+      </c>
+      <c r="D93">
+        <v>-0.3013413946905475</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003601792551281015</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02274776313039028</v>
+      </c>
+      <c r="C94">
+        <v>-0.1464244468166376</v>
+      </c>
+      <c r="D94">
+        <v>0.05167455106139457</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004819121773544342</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01663182654192599</v>
+      </c>
+      <c r="C95">
+        <v>-0.124550129389277</v>
+      </c>
+      <c r="D95">
+        <v>0.05774176501184873</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001618645390218859</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03661993992645803</v>
+      </c>
+      <c r="C97">
+        <v>-0.2126350435827551</v>
+      </c>
+      <c r="D97">
+        <v>0.003035208483491252</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.002677233686716802</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03701604177431563</v>
+      </c>
+      <c r="C98">
+        <v>-0.2482226701217923</v>
+      </c>
+      <c r="D98">
+        <v>0.04907699838022639</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9848674509850466</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9819584361322015</v>
+      </c>
+      <c r="C99">
+        <v>0.118322088910302</v>
+      </c>
+      <c r="D99">
+        <v>-0.02738314610249903</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001013508729111848</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003415317560650567</v>
+      </c>
+      <c r="C101">
+        <v>-0.05042440270131868</v>
+      </c>
+      <c r="D101">
+        <v>0.007995444161166021</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
